--- a/docs/项目进度.xlsx
+++ b/docs/项目进度.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="可视化专题" sheetId="1" r:id="rId1"/>
     <sheet name="碎片编辑器" sheetId="2" r:id="rId2"/>
-    <sheet name="67界威尼斯电影节专题交互" sheetId="3" r:id="rId3"/>
+    <sheet name="其他临时项目" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,106 +95,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>详见bug任务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间:2010-08-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划结束:2010-08-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑文字链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑纯文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑焦点图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结束:2010-08-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始(方案未定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始(方案未定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67界威尼斯电影节专题JS交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12金钗专题JS交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>细节bug修正及部分功能完善</t>
-  </si>
-  <si>
-    <t>详见bug任务列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间:2010-08-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划结束:2010-08-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑文字链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑纯文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑焦点图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际结束:2010-08-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始(方案未定)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始(方案未定)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成75%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67界威尼斯电影节专题JS交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月3日已完成大部分bug列表中提及的问题。9月3日开始替换编辑器的实现方式，剩下一些细节问题要编辑模式替换后处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换编辑器的编辑方式，不再使用weebly的内联编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用CMS4的碎片编辑模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +281,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -312,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +393,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -673,7 +709,7 @@
     <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="3" max="3" width="41.25" customWidth="1"/>
     <col min="4" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.1" customHeight="1">
@@ -687,13 +723,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
@@ -795,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10">
         <v>40422</v>
@@ -810,7 +846,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="12"/>
@@ -849,10 +885,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="12"/>
     </row>
@@ -871,19 +907,51 @@
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1">
       <c r="A15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D15" s="10">
         <v>40427</v>
       </c>
       <c r="E15" s="12"/>
-    </row>
+      <c r="F15" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1">
+      <c r="B16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="13">
+        <v>40428</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" ht="24.95" customHeight="1"/>
+    <row r="18" ht="24.95" customHeight="1"/>
+    <row r="19" ht="24.95" customHeight="1"/>
+    <row r="20" ht="24.95" customHeight="1"/>
+    <row r="21" ht="24.95" customHeight="1"/>
+    <row r="22" ht="24.95" customHeight="1"/>
+    <row r="23" ht="24.95" customHeight="1"/>
+    <row r="24" ht="24.95" customHeight="1"/>
+    <row r="25" ht="24.95" customHeight="1"/>
+    <row r="26" ht="24.95" customHeight="1"/>
+    <row r="27" ht="24.95" customHeight="1"/>
+    <row r="28" ht="24.95" customHeight="1"/>
+    <row r="29" ht="24.95" customHeight="1"/>
+    <row r="30" ht="24.95" customHeight="1"/>
+    <row r="31" ht="24.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A11"/>
@@ -900,7 +968,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A2:D7"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -922,74 +990,74 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1032,39 +1100,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.375" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" s="10">
+        <v>40421</v>
+      </c>
+      <c r="C2" s="10">
+        <v>40421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="13">
-        <v>40421</v>
-      </c>
-      <c r="C2" s="13">
-        <v>40421</v>
+      <c r="B3" s="10">
+        <v>40424</v>
+      </c>
+      <c r="C3" s="10">
+        <v>40424</v>
       </c>
     </row>
   </sheetData>

--- a/docs/项目进度.xlsx
+++ b/docs/项目进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,9 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-  </si>
-  <si>
     <t>基础功能项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,11 +208,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成60%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采用CMS4的碎片编辑模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,18 +379,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -402,6 +387,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,18 +720,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>20</v>
+      <c r="A2" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -748,7 +745,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -761,7 +758,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -774,7 +771,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -787,7 +784,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -800,7 +797,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -813,7 +810,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -826,12 +823,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10">
         <v>40422</v>
@@ -841,32 +838,34 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D11" s="10">
         <v>40427</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11">
+        <v>40429</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>21</v>
+      <c r="A12" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
@@ -880,20 +879,20 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="A13" s="15"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
@@ -907,34 +906,37 @@
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="10">
         <v>40427</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1">
+      <c r="B16" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1">
-      <c r="B16" s="20" t="s">
-        <v>50</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D16" s="13">
         <v>40428</v>
       </c>
+      <c r="E16" s="13">
+        <v>40429</v>
+      </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="24.95" customHeight="1"/>
@@ -990,74 +992,74 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>30</v>
+      <c r="A2" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1114,19 +1116,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="10">
         <v>40421</v>
@@ -1137,7 +1139,7 @@
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="10">
         <v>40424</v>

--- a/docs/项目进度.xlsx
+++ b/docs/项目进度.xlsx
@@ -68,151 +68,152 @@
     <t>专题风格更换</t>
   </si>
   <si>
+    <t>可进行内容修改</t>
+  </si>
+  <si>
+    <t>可进行页面风格修改</t>
+  </si>
+  <si>
+    <t>可进行碎片及横切的增删</t>
+  </si>
+  <si>
+    <t>demo完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础功能项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范例模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见bug任务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间:2010-08-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划结束:2010-08-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑文字链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑纯文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑焦点图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结束:2010-08-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始(方案未定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始(方案未定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67界威尼斯电影节专题JS交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12金钗专题JS交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节bug修正及部分功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月3日已完成大部分bug列表中提及的问题。9月3日开始替换编辑器的实现方式，剩下一些细节问题要编辑模式替换后处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换编辑器的编辑方式，不再使用weebly的内联编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用CMS4的碎片编辑模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>专题预览及发布</t>
-  </si>
-  <si>
-    <t>可进行内容修改</t>
-  </si>
-  <si>
-    <t>可进行页面风格修改</t>
-  </si>
-  <si>
-    <t>可进行碎片及横切的增删</t>
-  </si>
-  <si>
-    <t>demo完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础功能项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范例模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见bug任务列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间:2010-08-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划结束:2010-08-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑文字链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑纯文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑焦点图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际结束:2010-08-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始(方案未定)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始(方案未定)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67界威尼斯电影节专题JS交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12金钗专题JS交互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成90%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细节bug修正及部分功能完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月3日已完成大部分bug列表中提及的问题。9月3日开始替换编辑器的实现方式，剩下一些细节问题要编辑模式替换后处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换编辑器的编辑方式，不再使用weebly的内联编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采用CMS4的碎片编辑模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +698,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -720,18 +721,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -802,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="11">
@@ -828,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="10">
         <v>40422</v>
@@ -843,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="12"/>
@@ -851,10 +852,10 @@
     <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="10">
         <v>40427</v>
@@ -865,10 +866,10 @@
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
@@ -881,20 +882,20 @@
     <row r="13" spans="1:6" ht="18" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
@@ -906,25 +907,25 @@
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="10">
         <v>40427</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1">
       <c r="B16" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
@@ -936,7 +937,7 @@
         <v>40429</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="24.95" customHeight="1"/>
@@ -992,74 +993,74 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1117,18 +1118,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24.95" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="10">
         <v>40421</v>
@@ -1139,7 +1140,7 @@
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="10">
         <v>40424</v>
